--- a/SensitivityAnalysisSpreadSheets/WeightCheckTime/WeightCheckTime10 Aircraft 9_1_-20%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/WeightCheckTime/WeightCheckTime10 Aircraft 9_1_-20%.xlsx
@@ -78531,6 +78531,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>12.65933333333333</v>
+      </c>
       <c r="C2" t="n">
         <v>431.7861111111111</v>
       </c>
@@ -78586,6 +78589,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>12.79833333333333</v>
+      </c>
       <c r="C3" t="n">
         <v>442.7055555555556</v>
       </c>
@@ -78641,6 +78647,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>13.10366666666667</v>
+      </c>
       <c r="C4" t="n">
         <v>420.0633333333333</v>
       </c>
@@ -78696,6 +78705,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>14.3875</v>
+      </c>
       <c r="C5" t="n">
         <v>460.3688888888889</v>
       </c>
@@ -78751,6 +78763,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>13.40816666666667</v>
+      </c>
       <c r="C6" t="n">
         <v>422.9905555555556</v>
       </c>
@@ -78806,6 +78821,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>13.8395</v>
+      </c>
       <c r="C7" t="n">
         <v>451.3677777777777</v>
       </c>
@@ -78861,6 +78879,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>12.57033333333333</v>
+      </c>
       <c r="C8" t="n">
         <v>445.1</v>
       </c>
@@ -78916,6 +78937,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>13.57533333333333</v>
+      </c>
       <c r="C9" t="n">
         <v>425.7266666666666</v>
       </c>
@@ -78971,6 +78995,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>14.47666666666667</v>
+      </c>
       <c r="C10" t="n">
         <v>460.6777777777777</v>
       </c>
@@ -79026,6 +79053,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>14.08666666666667</v>
+      </c>
       <c r="C11" t="n">
         <v>451.7972222222222</v>
       </c>
@@ -79081,6 +79111,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>14.04416666666667</v>
+      </c>
       <c r="C12" t="n">
         <v>472.3494444444444</v>
       </c>
@@ -79136,6 +79169,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>14.27516666666667</v>
+      </c>
       <c r="C13" t="n">
         <v>429.64</v>
       </c>
@@ -79191,6 +79227,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>13.41666666666667</v>
+      </c>
       <c r="C14" t="n">
         <v>448.3872222222222</v>
       </c>
@@ -79246,6 +79285,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>12.847</v>
+      </c>
       <c r="C15" t="n">
         <v>444.2088888888889</v>
       </c>
@@ -79301,6 +79343,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>12.7125</v>
+      </c>
       <c r="C16" t="n">
         <v>435.4638888888889</v>
       </c>
@@ -79356,6 +79401,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>13.184</v>
+      </c>
       <c r="C17" t="n">
         <v>422.0533333333333</v>
       </c>
@@ -79411,6 +79459,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>13.96083333333333</v>
+      </c>
       <c r="C18" t="n">
         <v>436.7827777777778</v>
       </c>
@@ -79466,6 +79517,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>12.16483333333333</v>
+      </c>
       <c r="C19" t="n">
         <v>430.5583333333334</v>
       </c>
@@ -79521,6 +79575,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>12.32833333333333</v>
+      </c>
       <c r="C20" t="n">
         <v>409.4616666666667</v>
       </c>
@@ -79576,6 +79633,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>13.2575</v>
+      </c>
       <c r="C21" t="n">
         <v>424.5155555555556</v>
       </c>
@@ -79631,6 +79691,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>13.1705</v>
+      </c>
       <c r="C22" t="n">
         <v>421.6722222222222</v>
       </c>
@@ -79686,6 +79749,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>13.198</v>
+      </c>
       <c r="C23" t="n">
         <v>448.1388888888889</v>
       </c>
@@ -79741,6 +79807,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>14.6905</v>
+      </c>
       <c r="C24" t="n">
         <v>464.6461111111111</v>
       </c>
@@ -79796,6 +79865,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>14.299</v>
+      </c>
       <c r="C25" t="n">
         <v>459.8111111111111</v>
       </c>
@@ -79851,6 +79923,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>12.00766666666667</v>
+      </c>
       <c r="C26" t="n">
         <v>435.4933333333333</v>
       </c>
@@ -79906,6 +79981,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>14.01783333333333</v>
+      </c>
       <c r="C27" t="n">
         <v>432.5161111111111</v>
       </c>
@@ -79961,6 +80039,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>13.20483333333333</v>
+      </c>
       <c r="C28" t="n">
         <v>439.1988888888889</v>
       </c>
@@ -80016,6 +80097,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>12.43</v>
+      </c>
       <c r="C29" t="n">
         <v>424.3866666666667</v>
       </c>
@@ -80071,6 +80155,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>13.112</v>
+      </c>
       <c r="C30" t="n">
         <v>463.3533333333332</v>
       </c>
@@ -80125,6 +80212,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>11.9215</v>
       </c>
       <c r="C31" t="n">
         <v>422.6055555555555</v>
